--- a/images/talbeur_parc_immo.xlsx
+++ b/images/talbeur_parc_immo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -139,15 +139,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>prix</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>exemples</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -172,12 +164,13 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
+            <c:name>hypothèse</c:name>
             <c:spPr>
               <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -285,11 +278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141161104"/>
-        <c:axId val="2141167152"/>
+        <c:axId val="-2125380464"/>
+        <c:axId val="-2125321584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2141161104"/>
+        <c:axId val="-2125380464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,12 +395,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141167152"/>
+        <c:crossAx val="-2125321584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141167152"/>
+        <c:axId val="-2125321584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +513,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2141161104"/>
+        <c:crossAx val="-2125380464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -532,6 +525,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1425,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/images/talbeur_parc_immo.xlsx
+++ b/images/talbeur_parc_immo.xlsx
@@ -278,11 +278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125380464"/>
-        <c:axId val="-2125321584"/>
+        <c:axId val="2116101216"/>
+        <c:axId val="2117048976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125380464"/>
+        <c:axId val="2116101216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,12 +395,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125321584"/>
+        <c:crossAx val="2117048976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125321584"/>
+        <c:axId val="2117048976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,7 +513,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125380464"/>
+        <c:crossAx val="2116101216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1154,16 +1154,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1450,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>

--- a/images/talbeur_parc_immo.xlsx
+++ b/images/talbeur_parc_immo.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Taille</t>
   </si>
   <si>
     <t>prix</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>nombre de pièces</t>
+  </si>
+  <si>
+    <t>nombre d'étages</t>
   </si>
 </sst>
 </file>
@@ -278,11 +288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116101216"/>
-        <c:axId val="2117048976"/>
+        <c:axId val="2132168800"/>
+        <c:axId val="2118902240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116101216"/>
+        <c:axId val="2132168800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,12 +405,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117048976"/>
+        <c:crossAx val="2118902240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117048976"/>
+        <c:axId val="2118902240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -513,7 +523,496 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116101216"/>
+        <c:crossAx val="2132168800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.110131808502876"/>
+          <c:y val="0.0392607554490471"/>
+          <c:w val="0.837315537748177"/>
+          <c:h val="0.783734565787972"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>exemples</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="44450">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:name>hypothèse</c:name>
+            <c:spPr>
+              <a:ln w="38100" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2104.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1416.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1534.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>852.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1012.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1775.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2114.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1316.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1634.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>314.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>432.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>510.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>334.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2108703616"/>
+        <c:axId val="2116382352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2108703616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Taille (m2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116382352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2116382352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Prix (€)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2108703616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -634,7 +1133,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1169,6 +2224,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Graphique 3"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1450,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,4 +2661,208 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2104</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1416</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1534</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>852</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1012</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>126</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1775</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>600</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2114</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1316</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1634</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>